--- a/lab6/verificar-valores.xlsx
+++ b/lab6/verificar-valores.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\vagrant\ProgConc\lab6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\costa\ProgConc\lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0ED164-04E3-4CB1-9FCF-5E15ADC66447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{123AA654-80E5-41B4-93A4-4C096EC43A14}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,27 +424,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ABD65F-BBC4-437F-B8EE-E108662D1FA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1">
-        <v>2006</v>
+        <v>1918</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -454,13 +453,13 @@
         <v>3</v>
       </c>
       <c r="G1">
-        <v>20300</v>
+        <v>19653</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -471,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1823</v>
+        <v>1813</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -480,24 +479,24 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>18610</v>
+        <v>19361</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -506,24 +505,24 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>21082</v>
+        <v>21336</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1934</v>
+        <v>1847</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -532,24 +531,24 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>19484</v>
+        <v>18681</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1950</v>
+        <v>2034</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -558,19 +557,19 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>20528</v>
+        <v>20969</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G6" s="1">
         <f>SUM(G1:G5)</f>
-        <v>100004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -593,7 +592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -616,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -639,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -662,7 +661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -685,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -702,7 +701,7 @@
         <v>9690</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="1">
         <f>SUM(F8:F12)</f>
         <v>9690</v>
